--- a/75 Problems/status.xlsx
+++ b/75 Problems/status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harsh\Desktop\LC\LCPrac\75 Problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A75CE5-78D9-4C76-9F0C-F1AC7A9EE509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F108AC09-ACDE-45C1-BC95-70B8ED170E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20490" yWindow="-2865" windowWidth="14400" windowHeight="15600" xr2:uid="{3CAF7F0B-CC37-45BD-B05F-E46BEFC5DAF3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>problem</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>Product of Array Except Self</t>
+  </si>
+  <si>
+    <t>Increasing Triplet Subsequence</t>
   </si>
 </sst>
 </file>
@@ -450,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1971D226-2A1D-4AD6-AFFE-CA8509043B75}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C17:C18"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,8 +608,25 @@
         <v>3</v>
       </c>
     </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>334</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1">
+        <v>45879</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 E2:E1048576" xr:uid="{94BD3804-69AF-4778-8811-EC52EACD3517}">
       <formula1>"Help, Self, Mix"</formula1>
     </dataValidation>

--- a/75 Problems/status.xlsx
+++ b/75 Problems/status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harsh\Desktop\LC\LCPrac\75 Problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F108AC09-ACDE-45C1-BC95-70B8ED170E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D25364-F1A6-4A0B-8CCD-AFD686CBB953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20490" yWindow="-2865" windowWidth="14400" windowHeight="15600" xr2:uid="{3CAF7F0B-CC37-45BD-B05F-E46BEFC5DAF3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>problem</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>Increasing Triplet Subsequence</t>
+  </si>
+  <si>
+    <t>String Compression</t>
   </si>
 </sst>
 </file>
@@ -453,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1971D226-2A1D-4AD6-AFFE-CA8509043B75}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,8 +628,25 @@
         <v>3</v>
       </c>
     </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>443</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1">
+        <v>45879</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 E2:E1048576" xr:uid="{94BD3804-69AF-4778-8811-EC52EACD3517}">
       <formula1>"Help, Self, Mix"</formula1>
     </dataValidation>

--- a/75 Problems/status.xlsx
+++ b/75 Problems/status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harsh\Desktop\LC\LCPrac\75 Problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D25364-F1A6-4A0B-8CCD-AFD686CBB953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A78118B-E769-4DBC-95C9-1301D4F570C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20490" yWindow="-2865" windowWidth="14400" windowHeight="15600" xr2:uid="{3CAF7F0B-CC37-45BD-B05F-E46BEFC5DAF3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>problem</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>String Compression</t>
+  </si>
+  <si>
+    <t>Move Zeroes</t>
+  </si>
+  <si>
+    <t>Is Subsequence</t>
   </si>
 </sst>
 </file>
@@ -456,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1971D226-2A1D-4AD6-AFFE-CA8509043B75}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,6 +651,40 @@
         <v>3</v>
       </c>
     </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>283</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1">
+        <v>45879</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>392</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="1">
+        <v>45880</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 E2:E1048576" xr:uid="{94BD3804-69AF-4778-8811-EC52EACD3517}">

--- a/75 Problems/status.xlsx
+++ b/75 Problems/status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harsh\Desktop\LC\LCPrac\75 Problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A78118B-E769-4DBC-95C9-1301D4F570C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A898088C-6E93-4583-8290-1E0D83E275FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20490" yWindow="-2865" windowWidth="14400" windowHeight="15600" xr2:uid="{3CAF7F0B-CC37-45BD-B05F-E46BEFC5DAF3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>problem</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>Is Subsequence</t>
+  </si>
+  <si>
+    <t>Container With Most Water</t>
   </si>
 </sst>
 </file>
@@ -462,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1971D226-2A1D-4AD6-AFFE-CA8509043B75}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,6 +688,23 @@
         <v>3</v>
       </c>
     </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="1">
+        <v>45880</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 E2:E1048576" xr:uid="{94BD3804-69AF-4778-8811-EC52EACD3517}">

--- a/75 Problems/status.xlsx
+++ b/75 Problems/status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harsh\Desktop\LC\LCPrac\75 Problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A898088C-6E93-4583-8290-1E0D83E275FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C2F1BF-5E2F-4950-AB87-A20B6942704D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20490" yWindow="-2865" windowWidth="14400" windowHeight="15600" xr2:uid="{3CAF7F0B-CC37-45BD-B05F-E46BEFC5DAF3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t>problem</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>Container With Most Water</t>
+  </si>
+  <si>
+    <t>Max Number of K-Sum Pairs</t>
   </si>
 </sst>
 </file>
@@ -465,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1971D226-2A1D-4AD6-AFFE-CA8509043B75}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,6 +708,23 @@
         <v>3</v>
       </c>
     </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1679</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="1">
+        <v>45880</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 E2:E1048576" xr:uid="{94BD3804-69AF-4778-8811-EC52EACD3517}">

--- a/75 Problems/status.xlsx
+++ b/75 Problems/status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harsh\Desktop\LC\LCPrac\75 Problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C2F1BF-5E2F-4950-AB87-A20B6942704D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F2BE49-8071-4DD8-A798-AEB99881963B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20490" yWindow="-2865" windowWidth="14400" windowHeight="15600" xr2:uid="{3CAF7F0B-CC37-45BD-B05F-E46BEFC5DAF3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t>problem</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>Max Number of K-Sum Pairs</t>
+  </si>
+  <si>
+    <t>Maximum Average Subarray I</t>
   </si>
 </sst>
 </file>
@@ -468,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1971D226-2A1D-4AD6-AFFE-CA8509043B75}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,6 +728,23 @@
         <v>3</v>
       </c>
     </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>643</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="1">
+        <v>45882</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 E2:E1048576" xr:uid="{94BD3804-69AF-4778-8811-EC52EACD3517}">

--- a/75 Problems/status.xlsx
+++ b/75 Problems/status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harsh\Desktop\LC\LCPrac\75 Problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F2BE49-8071-4DD8-A798-AEB99881963B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30154568-9558-4F12-9E35-84A9F1504049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20490" yWindow="-2865" windowWidth="14400" windowHeight="15600" xr2:uid="{3CAF7F0B-CC37-45BD-B05F-E46BEFC5DAF3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>problem</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>Maximum Average Subarray I</t>
+  </si>
+  <si>
+    <t>Maximum Number of Vowels in a Substring of Given Length</t>
+  </si>
+  <si>
+    <t>Max Consecutive Ones III</t>
   </si>
 </sst>
 </file>
@@ -471,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1971D226-2A1D-4AD6-AFFE-CA8509043B75}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,6 +751,40 @@
         <v>3</v>
       </c>
     </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1456</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="1">
+        <v>45882</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1004</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="1">
+        <v>45882</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 E2:E1048576" xr:uid="{94BD3804-69AF-4778-8811-EC52EACD3517}">
